--- a/biology/Médecine/Daniel_Annequin/Daniel_Annequin.xlsx
+++ b/biology/Médecine/Daniel_Annequin/Daniel_Annequin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Annequin, né le 20 octobre 1949[1], est un anesthésiste pédiatrique et psychiatre français, spécialiste et pionnier dans le domaine de la prise en charge de la douleur chez l'enfant, en particulier liée aux soins.
-Past-Président de l’association Pédiadol[2] relayant les connaissances sur le sujet auprès des professionnels, membre fondateur de l’association SPARADRAP qui vise une meilleure prise en charge, il exerce en 2016 à l’hôpital des enfants Armand-Trousseau à Paris, où il est, entre autres, responsable du Centre de la migraine de l'enfant et de l’Unité douleur.
-De 2002 à 2005, il est responsable médical du second programme national de lutte contre la douleur[3] au Ministère de la santé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Annequin, né le 20 octobre 1949, est un anesthésiste pédiatrique et psychiatre français, spécialiste et pionnier dans le domaine de la prise en charge de la douleur chez l'enfant, en particulier liée aux soins.
+Past-Président de l’association Pédiadol relayant les connaissances sur le sujet auprès des professionnels, membre fondateur de l’association SPARADRAP qui vise une meilleure prise en charge, il exerce en 2016 à l’hôpital des enfants Armand-Trousseau à Paris, où il est, entre autres, responsable du Centre de la migraine de l'enfant et de l’Unité douleur.
+De 2002 à 2005, il est responsable médical du second programme national de lutte contre la douleur au Ministère de la santé.
 Il a été nommé en septembre 2014 professeur à l'université Pierre et Marie Curie ; il est le premier médecin français à obtenir ce titre pour la douleur de l'enfant.
 Dans le Journal Le Monde du 16 janvier 2018, il a publié une tribune " Douleur chronique: la spirale infernale des opiacés". 
 Sur le site du Journal international de Medecine, le 19 mai 2018, il a publié une tribune Opiacés : remèdes ou poisons ?
@@ -518,7 +530,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2002, Daniel Annequin et Claire Guilabert, La douleur chez l'enfant, Paris, Masson, 2002, 183 p. (ISBN 2-225-85763-6)
 2002 : T’as pas de raison d’avoir mal, La Martiniere, Paris  (ISBN 978-2846750332)
